--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -5,28 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\candy\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6464115-4165-49F8-8A20-138672CD48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97112C8C-33E8-45D3-84DA-73767947EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="39">
   <si>
     <t>Ámbito</t>
   </si>
@@ -124,32 +141,33 @@
     <t>UCAYALI</t>
   </si>
   <si>
-    <t>Leyenda:</t>
+    <t>Huella ecológica per cápita departamental y por componentes</t>
   </si>
   <si>
-    <t>Hag = Hectáreas Globales.</t>
+    <t>Área de Cultivos (Hag)</t>
   </si>
   <si>
-    <t>(*) Calculado en base al ámbito nacional.</t>
+    <t>Área de Pastoreo  (Hag)</t>
   </si>
   <si>
-    <t>Fuente:</t>
+    <t>Área de Bosques  (Hag)</t>
   </si>
   <si>
-    <t>Dirección de Información e Investigación Ambiental del Ministerio del Ambiente (DIIA - MINAM)</t>
+    <t>Zonas de Pesca   (Hag)</t>
   </si>
   <si>
-    <t>PERÚ (*)</t>
+    <t>Huella de Carbono  (Hag)</t>
   </si>
   <si>
-    <t>Huella ecológica per cápita departamental y por componentes</t>
+    <t>Áreas Urbanas  (Hag)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,9 +293,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,72 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="http://sinia.minam.gob.pe/sites/default/files/logo-minam.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2476500" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,8 +588,8 @@
   </sheetPr>
   <dimension ref="A5:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,16 +600,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -923,7 +882,7 @@
         <v>0.94085610669861375</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -949,7 +908,7 @@
         <v>1.9965834959744981</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -975,7 +934,7 @@
         <v>1.6118390220399901</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +960,7 @@
         <v>1.9388674114424784</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1027,7 +986,7 @@
         <v>1.8131086276474946</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1012,7 @@
         <v>3.1168009107993799</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1038,7 @@
         <v>1.8538499880066941</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1064,7 @@
         <v>2.567402950213622</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1090,7 @@
         <v>2.0961578349007728</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1116,7 @@
         <v>1.2428626766315587</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1142,7 @@
         <v>1.9171903078061365</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1168,7 @@
         <v>1.0350830058994505</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1235,7 +1194,7 @@
         <v>1.496404706607499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1261,7 +1220,7 @@
         <v>2.3899916396090557</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1246,7 @@
         <v>2.4052123768019946</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -1313,56 +1272,35 @@
         <v>1.9750430980354177</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.43261250721498717</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.52616636450860776</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.17539481008584268</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0.37257227835862561</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.54708289425620193</v>
-      </c>
-      <c r="G32" s="8">
-        <v>6.5502683035256776E-2</v>
-      </c>
-      <c r="H32" s="8">
-        <v>2.1193315374595221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>36</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1370,20 +1308,4856 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66163BE3-AFE0-477C-A101-2C052F49CDF8}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.26527530834322632</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.26775592068518833</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.10233759087374927</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.13807223418248188</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.29972484665955218</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.6960248302372942E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.120126149046571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.3786202671434552</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.36481000622771487</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.17347085290406464</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.23264786577004765</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.49888958405053879</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.9158956362919679E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.7075975324587409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.24718768206947431</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.30182855237509648</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.0502067193470209E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.14200960300768856</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.23497443198251988</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.499400837021472E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.0414963449984642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.44780746918234321</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.70083016995881697</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.18640587682410117</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.17860641407190603</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.69945500040568864</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.4143130057843967E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.2872480605007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.29924158583947763</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.39610147278055741</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.1499979709118939E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.16536470481039742</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.29681963362037056</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.7836943535346806E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.2868643202952688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.30145032689749829</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.32050244956461038</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7.20596973740322E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.18698623351507515</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.2964001367884736</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.7427454648979022E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.2148262987886687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.35280205928720526</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5322238720584539</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.12066387967466918</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.16592509290215093</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.42538741619990278</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5.7520263517350748E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.654522583639733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.21771451404306832</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.26907259290675511</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.7883925044716796E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.11337278898374384</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.21183467040793263</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.1530835126717061E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.90140932651293382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.25568484355157262</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.22343673271559791</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.2845183697040132E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.11684906313642872</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.30482169934254871</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.9204277833169432E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.0328418002763575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.47770262418620885</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.45293850986419198</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.18989391418481177</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.27143958474174407</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.61496741517594855</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.658102375352562E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0735230719064308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.3921672159045827</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.41580131558493522</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.12371805416941453</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.21371089797739176</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.44383186759619103</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.86603077455302E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.6378896589780454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.41757138606200245</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.41782603782278716</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.16750342640873214</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.2439275675813001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59393159791055339</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.3564750008962679E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.8943247657943378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.46965227008983285</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.46650063904262601</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.16530065988556869</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.3070576394084647</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.54367052675208838</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.9616729106997737E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.0117984642855782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.6281827084826348</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.6953846881830158</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.273260140303895</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.36635927569127247</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.1128900997680518</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.9398865694480393E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.1754757781233502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.42445042417264434</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.37507353419173045</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.13560632398458178</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.34342705177552302</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.45617636173209442</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5.0282463917595513E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.7850161597741694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.56521948239191777</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.63955118317023563</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.25101159611779472</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.29342657025506269</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.68554182565423993</v>
+      </c>
+      <c r="G23" s="6">
+        <v>9.8530401611604257E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.533281059200855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.4353599396650516</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.68265150829119103</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.18070156066318163</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.20741604589575133</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.71022095150940268</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9.2535332455043723E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.3088853384796222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.32010540213603195</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.3706996966116598</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.10014998858194923</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.15867263186124927</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.37153879835773312</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.2187281458845408E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.3733537990074687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.4182398106427514</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.45783635680600715</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.1515999188531674</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.34839494386826791</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.45204316185695359</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4.7759609544042625E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.87587380157119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.2573645211620324</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.43632688663828717</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7.8733203237102978E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.10523545157757613</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.27085716613859728</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.6403062606722686E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.1849202913603185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.35064466363135272</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.34015183648635361</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.13495179208188485</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.26408068175042015</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.42469534432349915</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.5961586028936902E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.5704859043024473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.46191104298384988</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.71008973480657778</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.24834421631612513</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.21525048161029009</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.82776307189019338</v>
+      </c>
+      <c r="G29" s="6">
+        <v>9.0145820245626729E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.5535043678526632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.57668702213444256</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.68419111754884643</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.22057355093261916</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.47872028541162581</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.62281118396355084</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.9318719766751006E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.6623018797578357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.45127068228974521</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.38961495412602565</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.1669317708092854</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.47556534456011157</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.53511012599164631</v>
+      </c>
+      <c r="G31" s="6">
+        <v>6.3328871379883619E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.0818217491566977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D0D0D-06D2-40CF-8889-E6A2EB6C961B}">
+  <dimension ref="A2:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.2692330002894906</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.27951442102869772</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.11030588024100878</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.22619017822777987</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.29961471347921015</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.6014548612446096E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.2308727418786332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.37798225451820783</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.37755422429197288</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.20564352251089968</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.33317199560498539</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.50583344667277153</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.8695729789007764E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.858881173387845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.23202418093875446</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.30350855824575657</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.235899548120279E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.18009155526769138</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.24498675686451812</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.335694472048345E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.0763269915184068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.44421064650484859</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.7432694773403169</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.17892546674261667</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.2827724305548095</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.68875768066273535</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.7320033301066243E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.4052557351063935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.28923230260794403</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.34605803707422644</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.6602370125842015E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.26948456212306821</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.28017553402805523</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.1467781215986738E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.3130205871751226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.26836300674946817</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.2823800540398469</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.10002117581772377</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.21366867753008376</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.31264794891133973</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.2555261187192314E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.2196361242356546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.33092750070111715</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5212727870708086</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.13485650413533229</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.23571826266076204</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.42707775254483654</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5.2474890747735758E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.7023276978605923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.19099295928532545</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.23787963378620891</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.9191837903750215E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.14020198039316273</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.22562864736512109</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.2059440459883105E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.9059544991934515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.26341084591781228</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.24371722613747657</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.9193369337629483E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.19729698845166418</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.31658806039671145</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.8412937303295022E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.1586194275445891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.49656895136674367</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.47528095981537721</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.23104803962919096</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.41210694070446563</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.65621646109314558</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.8910260023254316E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.3401316126321774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.35295486927556041</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36402806032587698</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.14143718191457758</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.2979107007219079</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.43627154250369116</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.7616204045018054E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.640218558786632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.41978958850901776</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.43004048158792185</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.1904841193603099</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.38164857904905741</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.60034677213737131</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.2449064595900242E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.0747586052395786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.47031333120446356</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.48523052483484197</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.15818647012045492</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.51354935142698976</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.54592061921116952</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.7098021927440436E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.2302983187253602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.58827859453226583</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.66270411990468969</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.26254308264888609</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.53126813605058854</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.097395549727092</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.7132870768653401E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.2393223536321756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.40131843587053467</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.34447274367218295</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.16263788936058154</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.47655710486950992</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.46344847325384175</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5.3063209066536783E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9014978560931877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.54563630901766103</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.62821840984475041</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.2890069755181876</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.41651797976695587</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.7462972569233508</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.10303152693960087</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.7287084580105065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.39677808907271012</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.6457671453680166</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.22454095055305226</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.27197272978320153</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.70508366499555508</v>
+      </c>
+      <c r="G24" s="6">
+        <v>8.6603267150931959E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.3307458469234672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.27348830722301398</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.3357904476146093</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9.9823188703224985E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.21403490071017214</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.36013445532494393</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.0536214548561505E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.333807514124526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.42666968859807203</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.49603401909114675</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.16746028492561768</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.59889480656955862</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.48343969037166085</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5.0431868070487003E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.2229303576265433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.25124891930468091</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.42789666777853297</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.10762188048254417</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.14950963735733597</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.29482637506594656</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.0166885632428158E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.2712703656214688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.35508048927572639</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.34747641033303445</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.15799109259640623</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.40161716157573751</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.43949034311076618</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.6416571334149089E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.7580720682258197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.42853938700611682</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.6725648690956586</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.22902883887169972</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.27761201727904661</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.78925241891290598</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.3196707848248327E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.4801942390136764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.52211041070037534</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.63843907437365177</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.22249602623523082</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.66230139196868187</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.61956960261103089</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.5298548804036608E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.7402150546930071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.5221329385561454</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.52019150687644522</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.19153693338331773</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.90352852715210252</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.60687328631736859</v>
+      </c>
+      <c r="G31" s="6">
+        <v>7.0478948097267902E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.8147421403826471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BA149-02F9-4E05-BD10-95240C8F3D62}">
+  <dimension ref="A7:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.2723070314592978</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.24339921245568635</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.10013479826145819</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.14862223326218926</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.29602383786030012</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.5914697911423122E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.1064018112103549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.37682853363129587</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.40397943979838252</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.1718070307215725</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.21905464192807245</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.45924666673029318</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.5961966431792839E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.6868782792414094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.22758582175186057</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.25952025480296892</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9.2354810508947172E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.13652308683534609</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.24399571314400267</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.6957476753773005E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.99693716379689856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.43807795468885247</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.5531897430083591</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.18904557579306719</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.18782603707725054</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.66960675218968868</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.0511376184410973E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.1082574389416289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.3018001968132929</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.32913274624700106</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.9578118821427462E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.18661405058169347</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.27464628520672291</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.3839280554701418E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.2056106782248392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.27753983850418334</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.25550856978573977</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.0670172207590832E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.16906708098698189</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.29616359322475638</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.1363767008712887E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.1203130217179651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.39764366215295871</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.50505857590558068</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.13709180801540549</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.20167995623669768</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.44696036708529918</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5.9284329607742714E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.7477186990036846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.20999533794961178</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.26761870275674549</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.4442400784644466E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8.9633796986296643E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.2243751288993914</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.5136315700292645E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.90120168307698245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.2756806127710042</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.30583026529785667</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.8328679892486642E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.14551900128539524</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.31088365611241447</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.0553963587395624E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.1767961789465529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.51574622033781514</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.48552215947916905</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.20536330588996496</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.30578436575751561</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.59929069364782339</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.2765600366871344E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.1744723454791597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.33876793024688634</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.34658740023132906</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.11885595608734344</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.2053618749468655</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.40597586642487477</v>
+      </c>
+      <c r="G18" s="6">
+        <v>4.5338632741878868E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.4608876606791779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.44052023159758341</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.45347845447449681</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.18466615684046669</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.2520874411993328</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59509376521219348</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.749708449738275E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.983343133821456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.52086050774660775</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.48559307594595597</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.20008585755174746</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.40501116588404756</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.56700798438640976</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.9503886923617424E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.238062478438386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.63950940095471942</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.68977894998691647</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.27234966780219794</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.38946153751155527</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.0985582217526493</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.9413076223572594E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.1890708542316109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.44347302991546256</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.46884742488727355</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.14105038699996075</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.34480699334607146</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.45393069066664393</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5.6296863334891166E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9084053891503037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.60041059087269288</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.61677523635242015</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.29308672791541052</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.36718730050711373</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.74976966390209332</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.10594108836409859</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.7331706079138294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.41943264744291836</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.50880226970867692</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.24962140843082994</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.19908619833044663</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.72065808158983491</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9.6973837551962316E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.1945744430546688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.28818909467159226</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.42130412388665883</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9.8876539116935405E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.15858657791304029</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.34036409883471819</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.0466223348667863E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.3577866577716129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.44748739982094027</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.44051291931171532</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.16003461497087254</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.42417258170423916</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.47637524415919136</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5.2481361460448739E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.0010641214274072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.27252778115842496</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.37459770917283275</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8.3452767728105559E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.11911533307034981</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.2876184574038379</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.9654505503491574E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.1769665540370426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.38894724964155736</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.38237032599440779</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.13715112109954097</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.28759165671166309</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.42637100161248487</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.9110642934471151E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.6815419979941253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.5222111124301726</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.64384618901415569</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.17414680740868999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.24291031986759834</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.75512805401513483</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.15522500644833E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.4197947328002347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.52185452605012805</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.53178094962200828</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.22131985044125385</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.47578148457927882</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.58923260332153715</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.7236768834223368E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.4172061828484295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.56712470475440868</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.62397287418028391</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.20031043821824929</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.67056111023822662</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.59973539932628517</v>
+      </c>
+      <c r="G31" s="6">
+        <v>7.0963784411180481E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.7326683111286343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DFD5BD-412E-4A1E-8566-098A00F944DA}">
+  <dimension ref="A7:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.25984013155364055</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.24592441708853566</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8.967344772810143E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.2216657457748282</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.2926700997566748</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.6134353650013685E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.1559081955517942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.41018598811571649</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.3922397001043651</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.17625236657169746</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.33988525726354774</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.47647728032919179</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.2824529360622353E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.8478651217451409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.24417384146022694</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.2945050986749661</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7.7423210357705177E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.21662082392368381</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.28491005455982027</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4.2533911260034689E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.160166940236437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.46218105027242595</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.67379447602095777</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.20468781053117802</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.3099896043437978</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.76651543945648137</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.8868647366633626E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.4960370279914743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.31221709758645166</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.34474813130121446</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.2697693387036766E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.2500336530133126</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.28883399763379575</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.4294888711780056E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.3228254616335913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.28240973710437606</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.27135159378939794</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9.5796984058059642E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.25666379584154869</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.32629499629416053</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.3437115845110459E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.2759542229326535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.41404661832680206</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5701380139207064</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.14492952008962875</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.28293428509835689</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5034289029414668</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.5323039484098774E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.9808003798610596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.2058076155802798</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.25991517786464802</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.7231897527862664E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.14228399629460958</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.23323313150538327</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.6580617837641695E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.95505243661042505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.30001333858063639</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.28933559223863647</v>
+      </c>
+      <c r="D16" s="6">
+        <v>8.8449705203553219E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.23357999106492813</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.32842592959457045</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.213058993278327E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.2819351466151079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.50853988764910618</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.45417138257588463</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.18847233670826405</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.4176545308531836</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.63912919161245685</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.4932920000161973E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.2729002493990573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.35564916889346504</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.37403350479023356</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.12456651118844903</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.33003829232787657</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.45075858867497842</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.1044460724893263E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.686090526599896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.43518694788699036</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.49878998615166026</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.16860507630696525</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.35838788778745362</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59836097354447593</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.5064224891022528E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.1143950965685678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.51244119836647173</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.48040566734971413</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.17607656883550821</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.57301709047756566</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.57982264926262705</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.9549100069853707E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.3813122743617403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.61536088793770816</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.62725967310911868</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.26062369696593213</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.54293449011768968</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.1393249019219136</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.9166749347780012E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.284670399400142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.42196732585158087</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.39848974676838528</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.13536718728124905</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.50315382038140422</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.44537293487149887</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5.4543949965536388E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9588949651196546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.5687442934096435</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.54396758779003851</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.33548965005966708</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.45844408568486361</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.75017490396617914</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.10710748792563662</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.7639280088360287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.42327739811539888</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.60197898230811253</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.22207865374514626</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.27326021301705533</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.68482863748057266</v>
+      </c>
+      <c r="G24" s="6">
+        <v>8.7540693347282705E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.2929645780135686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.27666779032769107</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.37759587489539809</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9.5497965333141629E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.19184227401668766</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.32620093545797363</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4.875460604693814E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.31655944607783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.41842797311780511</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.44145158974710957</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.15095300461810096</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.50879932036070807</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.46727047426572266</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5.2263294163036829E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.0391656562724836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.31230291540113619</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.47908329372104008</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.10677934740972131</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.19864495300142254</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.3531851294019317</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.6774589275648114E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.4967702282108999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.38356728696149445</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.35304071380893437</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.13066512397389604</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.44662108528928401</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.42102554234173928</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.7814899084701929E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.79273465146005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.49521513986054372</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.7098139528738493</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.1871149160905459</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.34978021313649094</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.77486581214319294</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.4411281507061772E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.6012013156116844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.46798651132153807</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.47018819612838203</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.20766579372284957</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.60623510568979544</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.55347048216176242</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.0902356553020213E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.3764484455773478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.48954909865850499</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.47090236933986596</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.17896694079240452</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.80110069395811878</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.57472369018149527</v>
+      </c>
+      <c r="G31" s="6">
+        <v>6.9153141655381681E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.5843959345857712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7949C465-0A45-4EEB-BB6B-673023DE0D6F}">
+  <dimension ref="A4:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.26187083091213142</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.2104274133083924</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.10176160433029899</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.20481293045343815</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.31212665571769926</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.9845431517616889E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.1408448662395771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.38961556532521946</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.31275512700507152</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.16437596716858935</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.31671347078061474</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.48448115568043848</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.4446584540434412E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.7223878705003681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.26318045226000814</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.27504249876532744</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.4876616056183365E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.21917605992876327</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.30008988568205802</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4.4159930307680867E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.1865254430000212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.46704809822022852</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.71401839372601661</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.17688825695870569</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.33658320815885678</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.77989388913517799</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.8535694802212092E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.5529675410011978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.30850133774384564</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.35982399171524981</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.1710547888999155E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.2757519690533014</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.31071626614447029</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.8550929345288027E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.395055041891154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.24963894508182327</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.19609329759556079</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9.7088291619849484E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.21768265898174008</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.31913809906828017</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.0501465730808636E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.1201427580780625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.42249137337048115</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.5823739378048266</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.18340998668603387</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.27593074266089224</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.54434262642475928</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.9773541373005926E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.078322208319999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.19149186549951044</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.21187611701030934</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.8598888113538703E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.13645123957848651</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.22479981538094709</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.9720950369358118E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.87293887595215014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.28897390261783251</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.23348603450983874</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.10387792875058714</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.22154641018943086</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.35035052816355589</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.5174342833660452E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.2434091470649056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.51369860428650249</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.46381385185499596</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.17583305664336163</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.46072446985206766</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.65447690931200808</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.2891729959813972E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.3314386219087497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.38365089526097707</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36421918776288659</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.15347343003696023</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.33391770619024075</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.49305402748944482</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.5951275766028589E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.7842665225065379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.42446908740749595</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.37039181354523987</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.16949817572450976</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.35238623050607809</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59124401585212516</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.2491994070896206E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.9604813171063449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.53031590731629352</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.50859474665794013</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.16713493797481402</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.62816639715081757</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.61194172587484186</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6.1055793867747801E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.5072095088424544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.62832256568214273</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.65122275383431838</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.25153572185923173</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.55606007707402649</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.1790197436571588</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.9103341058202038E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.3652642031650801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.45503493120290678</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.37656855989742649</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.14680719579311471</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.57702515002244648</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.50863949528383512</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6.2394030094333461E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2.1264693622940634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.54824828111633395</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.52350429424208889</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.24743460840354506</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.46585431135792627</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.68446210842017985</v>
+      </c>
+      <c r="G23" s="6">
+        <v>9.3797880173340009E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.5633014837134138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.42826695244501939</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.61211615838144173</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.19944451636071225</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.27232131664947051</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.71451189255272385</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9.2012142230034094E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.3186729786194014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.28847764888791416</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.32207250378349589</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9.2347554903930817E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.2291251141066995</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.37255273230339619</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.3957576390841061E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.3585331303762775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.46198366795126611</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.46360323254722502</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.18800754293717023</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.59820971409071932</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.52622476645009697</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5.7581204407796245E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.2956101283842738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.3219436643095509</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.51912105464545633</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.10100549764206265</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.18388265118565114</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.35929079154803611</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.8190705083972343E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.5334343644147295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.42149911556927322</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.31641331217663315</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.14570840238281293</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.46268825343636849</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.4613512728145685</v>
+      </c>
+      <c r="G28" s="6">
+        <v>6.2049407642576E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.8697097640222322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.51927809766825372</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.70078989097456434</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.18454289707987781</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.38152392735274826</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.80645323018322368</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.8341436320910849E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.6809294795795786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.47528907822824701</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.47578468764373771</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.23353330855195234</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.57221141948084564</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.58427510840559982</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.3465847117627825E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.4145594494280105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.55751404042957375</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.49989913504449118</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.22231676458755648</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.86597240292688626</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.61540721043877467</v>
+      </c>
+      <c r="G31" s="6">
+        <v>7.3631564115504727E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.8347411175427872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD47CF5-E7DA-4F4A-99A7-7036B61EA086}">
+  <dimension ref="A5:H33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.28040670099470544</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.21874679447189471</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1061479519333605</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.19381011996802144</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.34509875834609921</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.4027830137067565E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.1982381558511488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.41155024713585803</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.3032249670599847</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.17564465196948525</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.32772563415221606</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.48959278028488062</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.0024252961464885E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.7577625335638898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.28605977006873068</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.33641645168368661</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7.1161061136677403E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.26301797564061286</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.35667705182729498</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.4577188068536439E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.3679094984255391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.49966455597613935</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.7821283557447144</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.1781323924715871</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.36610669093571641</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.83420324156371417</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8.1713636493375499E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.741948873185247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.30092463341062625</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.35236017236385209</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.961392598371748E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.2760689428587656</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.31382884123164639</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.9693765069447782E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.3824902809180555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.26188720908319429</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.19030427927237817</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9.4333614194323748E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.23392942055733409</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.32784168408323511</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.1675305764313282E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.1499715129547787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.41467791830920736</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.58810628011280464</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.12808434931436108</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.28859420631699878</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.51840935452597614</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.2122422409668865E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.999994530989017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.2311590730045176</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.22904128789097977</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.3449116713223087E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.17982501932207143</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.26798156433800374</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.4950496279431075E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.0264065575482268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.32593373873344911</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.25646920384889815</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.10871055935489918</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.25223832904327964</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.38066660407953196</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.7905868984526222E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.3719243040445841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.55290055946455541</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.48566916435570173</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.16707597434890775</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.45439443054332979</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.67732604486666426</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.1663370313291846E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.3990295438924507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.37664854511655543</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.36401142394453306</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.13803406723431888</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.33339313555091554</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.5130098143286681</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.6787887992736839E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.7818848741677278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.42398983393727774</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.35712718500017415</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.14962900046959685</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.35216809179511832</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59916606325942823</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5.2811182625826382E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.9348913570874215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.54559243530882717</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.50001866815889451</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.20024145962549211</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.63780560999104519</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.6641814160896472</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6.6630400077891672E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.6144699892517975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.64366833478688734</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.64880535517862115</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.26913260698484887</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.5870766013881733</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.2396345470732013</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.10285753505534237</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.4911749804670746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.43453595807318834</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.36644327594889642</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.14615005605558773</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.55470913996657656</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.49271128163189393</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5.786893201542026E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2.052418643691563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.57910968920085637</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.56169279624380608</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.21875971146980103</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.49798632963698453</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.66755081519332027</v>
+      </c>
+      <c r="G23" s="6">
+        <v>9.0007776592332611E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.6151071183371011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.45347602979144541</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.69194791539905853</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.19200728789924593</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.29812837065773923</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.73553827081662426</v>
+      </c>
+      <c r="G24" s="6">
+        <v>8.6266760265554382E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.4573646348296676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.28512755788423522</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.28482263968191723</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.10673581710756559</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.23506805728156449</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.38985241275861049</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5.9065154811264245E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.3606716395251572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.50288084019939583</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.4421624703344485</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.17634478451939442</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.62896204169508652</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.54546850719141615</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5.7478695223249159E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.3532973391629906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.28658569678942231</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.43113583277455086</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8.8334944198189658E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.16448909052220678</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.34163694009187046</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.5525686734102067E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.3577081911103421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.40205490919308556</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.29386213737317884</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.13453507150808144</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.4444983776521812</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.47562427712746541</v>
+      </c>
+      <c r="G28" s="6">
+        <v>6.6504442974275685E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.817079215828268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.51955601143740182</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.674811286410816</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.180160660596348</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.36424228260190966</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.79095676222164846</v>
+      </c>
+      <c r="G29" s="6">
+        <v>7.9078280905216625E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.6088052841733402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.47876366401253273</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.47238765481503686</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.21285088594081661</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.57471195098495975</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.59510964918730369</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.0631002487864691E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.4044548074285146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.53897215828032419</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.44774175920499959</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.21502002039687207</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.8292168155681976</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.63946014968493914</v>
+      </c>
+      <c r="G31" s="6">
+        <v>7.5006598569405586E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.7454175017047384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F9D57-D9ED-4491-A08F-AC4168D4F207}">
+  <dimension ref="A5:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.30925252759332111</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.22963020580889282</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.12191041969951141</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.23658236671272384</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.37253993199118729</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.4800448388517956E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.3247159001941546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.44299202518215142</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.3354469604639661</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.16219581628848076</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.35543538737159402</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.53833043029817684</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.4271143402542923E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.8886717630069121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.30278218141893654</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.34097599154765296</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7.5631225445465314E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.25181414331254004</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.35800936552249346</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5.4434290126714427E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.3836471973738029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.50991006915290216</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.70809576086984738</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.19407380934528495</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.37294275072175087</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.85729926494961206</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8.0233929607616924E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.7225555846470142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.30979989145648917</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.34260818582884578</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.2460359563097644E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.29643224648709671</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.34224570441139873</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.9843453965231169E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.4333898417121591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.28550461808587368</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.19233100996717786</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.5648248414429751E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.23363653372299487</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.34035794063011687</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.2180036016234747E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.1796583868368278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.40731103790707945</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.55817398636902116</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.14805587080243407</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.29063098581441049</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.55942305365801959</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.5366431615453496E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.0289613661664183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.23096731008945526</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.24831286968183627</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.5118046111970806E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.20024951597893864</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.27340928843590395</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.6039857415978033E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.0640968877140831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.3232346864699277</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.25315557809019434</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.11702964507019543</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.26143216449197293</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.38560917471678779</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4.8791628983191691E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.3892528778222699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.58298939048227805</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.49416637982417638</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.17565993427276111</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.48377248422430413</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.73111686178322133</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6.3669133091317345E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.5313741836780586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.38328152052701547</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.34068456695299343</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.13701152605147254</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.34674154120787914</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.51886586320721562</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.7205527815737754E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.783790545762314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.44328494104393956</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.35164986073035109</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.18638834294263315</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.36679086364912111</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.69268368734027508</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6.48859786942977E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.105683674400618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.58738218826317401</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.53320690889525035</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.2157468858242034</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.70813572555164195</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.71590875566653733</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6.9378217939362011E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.8297586821401692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.6424426761058033</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.63652796431794501</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.26306050126789093</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.59928609790011822</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.2623546433150292</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.10012998556189071</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3.5038018684686776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.41128361256035761</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.34433532125327143</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.12718065897146519</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.51135593683541636</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.49268015207235172</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6.0192780519853308E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9470284622127154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.60129408167946585</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.56989427328013986</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.17648502512581934</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.41588852840563284</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.67916924939798573</v>
+      </c>
+      <c r="G23" s="6">
+        <v>8.8407568172982759E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.5311387260620259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.46790906605644</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.62403230933579279</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.23599037617249471</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.29356079996145734</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.78987610392501617</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9.3186561631511206E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.5045552170827121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.2898302992933578</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.29406226479473757</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8.1429361974124287E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.23236312885900015</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.40766217833996371</v>
+      </c>
+      <c r="G25" s="6">
+        <v>6.2018611731849915E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.3673658449930335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.54288559736017339</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.47843373461155747</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.17757557810534252</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.69425822913007496</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.60874305105076743</v>
+      </c>
+      <c r="G26" s="6">
+        <v>6.4513536471588057E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>2.5664097267295034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.32437605915120343</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.47575738308615168</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8.3425845522551209E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.19340243734958751</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.38027232634008112</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5.2736928097987634E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.5099709795475627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.42696048119493607</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.29123980543738476</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.16073700685058059</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.4699241475272361</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.50680863856603409</v>
+      </c>
+      <c r="G28" s="6">
+        <v>6.8140623738753764E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.9238107033149257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.53871467784284144</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.63069789201009807</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.19344069969370065</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.35623262181123133</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.83813334943919071</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8.7639687746026734E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>2.6448589285430888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.49318759648176363</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.50679177686042376</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.24019993004052095</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.6445405589171902</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.63742403106522871</v>
+      </c>
+      <c r="G30" s="6">
+        <v>7.3598666834548979E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.595742560199676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.5312182626889933</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.43318803128162825</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.18194574670145772</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.78814078714095426</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.6760753979303098</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8.3082150483161504E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.6936503762265049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\candy\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97112C8C-33E8-45D3-84DA-73767947EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1259F4F-33C4-4968-AC54-3AC50765CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="33">
   <si>
     <t>Ámbito</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Área de Bosques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonas de Pesca </t>
   </si>
   <si>
     <t>Huella de Carbono</t>
@@ -144,30 +141,14 @@
     <t>Huella ecológica per cápita departamental y por componentes</t>
   </si>
   <si>
-    <t>Área de Cultivos (Hag)</t>
-  </si>
-  <si>
-    <t>Área de Pastoreo  (Hag)</t>
-  </si>
-  <si>
-    <t>Área de Bosques  (Hag)</t>
-  </si>
-  <si>
-    <t>Zonas de Pesca   (Hag)</t>
-  </si>
-  <si>
-    <t>Huella de Carbono  (Hag)</t>
-  </si>
-  <si>
-    <t>Áreas Urbanas  (Hag)</t>
+    <t>Zonas de pesca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
@@ -272,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,16 +274,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +566,8 @@
   </sheetPr>
   <dimension ref="A5:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,16 +578,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -635,21 +613,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.32006124492756616</v>
@@ -676,7 +654,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.34452180516352254</v>
@@ -702,7 +680,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.23851356522245268</v>
@@ -728,7 +706,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.42134252831592761</v>
@@ -754,7 +732,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.27200462429138172</v>
@@ -780,7 +758,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.25978227540516763</v>
@@ -806,7 +784,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.33310840053181612</v>
@@ -832,7 +810,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.18295395796939418</v>
@@ -858,7 +836,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.23343485609432721</v>
@@ -884,7 +862,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.44827123598451013</v>
@@ -910,7 +888,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.38284455118991634</v>
@@ -936,7 +914,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.41796255987472009</v>
@@ -962,7 +940,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.40483533304038077</v>
@@ -988,7 +966,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.59920636756472001</v>
@@ -1014,7 +992,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.39533195261454418</v>
@@ -1040,7 +1018,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.53616891319917004</v>
@@ -1066,7 +1044,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.38174350643970401</v>
@@ -1092,7 +1070,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.28188095877691877</v>
@@ -1118,7 +1096,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.39271795386592778</v>
@@ -1144,7 +1122,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.21001582567630878</v>
@@ -1170,7 +1148,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.33118807422977231</v>
@@ -1196,7 +1174,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.44027567550758623</v>
@@ -1222,7 +1200,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.47447490715878476</v>
@@ -1248,7 +1226,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.39814402751137118</v>
@@ -1315,23 +1293,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66163BE3-AFE0-477C-A101-2C052F49CDF8}">
   <dimension ref="A3:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1348,30 +1326,30 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.26527530834322632</v>
@@ -1397,7 +1375,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.3786202671434552</v>
@@ -1423,7 +1401,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.24718768206947431</v>
@@ -1449,7 +1427,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.44780746918234321</v>
@@ -1475,7 +1453,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.29924158583947763</v>
@@ -1501,7 +1479,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.30145032689749829</v>
@@ -1527,7 +1505,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.35280205928720526</v>
@@ -1553,7 +1531,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.21771451404306832</v>
@@ -1579,7 +1557,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.25568484355157262</v>
@@ -1605,7 +1583,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.47770262418620885</v>
@@ -1631,7 +1609,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.3921672159045827</v>
@@ -1657,7 +1635,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.41757138606200245</v>
@@ -1683,7 +1661,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.46965227008983285</v>
@@ -1709,7 +1687,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.6281827084826348</v>
@@ -1735,7 +1713,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.42445042417264434</v>
@@ -1761,7 +1739,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.56521948239191777</v>
@@ -1787,7 +1765,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.4353599396650516</v>
@@ -1813,7 +1791,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.32010540213603195</v>
@@ -1839,7 +1817,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.4182398106427514</v>
@@ -1865,7 +1843,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.2573645211620324</v>
@@ -1891,7 +1869,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.35064466363135272</v>
@@ -1917,7 +1895,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.46191104298384988</v>
@@ -1943,7 +1921,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.57668702213444256</v>
@@ -1969,7 +1947,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.45127068228974521</v>
@@ -2015,23 +1993,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D0D0D-06D2-40CF-8889-E6A2EB6C961B}">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -2057,21 +2035,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.2692330002894906</v>
@@ -2097,7 +2075,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.37798225451820783</v>
@@ -2123,7 +2101,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.23202418093875446</v>
@@ -2149,7 +2127,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.44421064650484859</v>
@@ -2175,7 +2153,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.28923230260794403</v>
@@ -2201,7 +2179,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.26836300674946817</v>
@@ -2227,7 +2205,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.33092750070111715</v>
@@ -2253,7 +2231,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.19099295928532545</v>
@@ -2279,7 +2257,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.26341084591781228</v>
@@ -2305,7 +2283,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.49656895136674367</v>
@@ -2331,7 +2309,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.35295486927556041</v>
@@ -2357,7 +2335,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.41978958850901776</v>
@@ -2383,7 +2361,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.47031333120446356</v>
@@ -2409,7 +2387,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.58827859453226583</v>
@@ -2435,7 +2413,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.40131843587053467</v>
@@ -2461,7 +2439,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.54563630901766103</v>
@@ -2487,7 +2465,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.39677808907271012</v>
@@ -2513,7 +2491,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.27348830722301398</v>
@@ -2539,7 +2517,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.42666968859807203</v>
@@ -2565,7 +2543,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.25124891930468091</v>
@@ -2591,7 +2569,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.35508048927572639</v>
@@ -2617,7 +2595,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.42853938700611682</v>
@@ -2643,7 +2621,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.52211041070037534</v>
@@ -2669,7 +2647,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.5221329385561454</v>
@@ -2715,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BA149-02F9-4E05-BD10-95240C8F3D62}">
   <dimension ref="A7:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2735,23 +2713,23 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
         <v>0.2723070314592978</v>
       </c>
       <c r="C8" s="6">
@@ -2775,7 +2753,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.37682853363129587</v>
@@ -2801,7 +2779,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.22758582175186057</v>
@@ -2827,7 +2805,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.43807795468885247</v>
@@ -2853,7 +2831,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.3018001968132929</v>
@@ -2879,7 +2857,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.27753983850418334</v>
@@ -2905,7 +2883,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.39764366215295871</v>
@@ -2931,7 +2909,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.20999533794961178</v>
@@ -2957,7 +2935,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.2756806127710042</v>
@@ -2983,7 +2961,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.51574622033781514</v>
@@ -3009,7 +2987,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.33876793024688634</v>
@@ -3035,7 +3013,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.44052023159758341</v>
@@ -3061,7 +3039,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.52086050774660775</v>
@@ -3087,7 +3065,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.63950940095471942</v>
@@ -3113,7 +3091,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.44347302991546256</v>
@@ -3139,7 +3117,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.60041059087269288</v>
@@ -3165,7 +3143,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.41943264744291836</v>
@@ -3191,7 +3169,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.28818909467159226</v>
@@ -3217,7 +3195,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.44748739982094027</v>
@@ -3243,7 +3221,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.27252778115842496</v>
@@ -3269,7 +3247,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.38894724964155736</v>
@@ -3295,7 +3273,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.5222111124301726</v>
@@ -3321,7 +3299,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.52185452605012805</v>
@@ -3347,7 +3325,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.56712470475440868</v>
@@ -3380,7 +3358,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3391,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DFD5BD-412E-4A1E-8566-098A00F944DA}">
   <dimension ref="A7:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,21 +3389,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.25984013155364055</v>
@@ -3451,7 +3429,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.41018598811571649</v>
@@ -3477,7 +3455,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.24417384146022694</v>
@@ -3503,7 +3481,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.46218105027242595</v>
@@ -3529,7 +3507,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.31221709758645166</v>
@@ -3555,7 +3533,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.28240973710437606</v>
@@ -3581,7 +3559,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.41404661832680206</v>
@@ -3607,7 +3585,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.2058076155802798</v>
@@ -3633,7 +3611,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.30001333858063639</v>
@@ -3659,7 +3637,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.50853988764910618</v>
@@ -3685,7 +3663,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.35564916889346504</v>
@@ -3711,7 +3689,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.43518694788699036</v>
@@ -3737,7 +3715,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.51244119836647173</v>
@@ -3763,7 +3741,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.61536088793770816</v>
@@ -3789,7 +3767,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.42196732585158087</v>
@@ -3815,7 +3793,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.5687442934096435</v>
@@ -3841,7 +3819,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.42327739811539888</v>
@@ -3867,7 +3845,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.27666779032769107</v>
@@ -3893,7 +3871,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.41842797311780511</v>
@@ -3919,7 +3897,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.31230291540113619</v>
@@ -3945,7 +3923,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.38356728696149445</v>
@@ -3971,7 +3949,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.49521513986054372</v>
@@ -3997,7 +3975,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.46798651132153807</v>
@@ -4023,7 +4001,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.48954909865850499</v>
@@ -4066,23 +4044,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7949C465-0A45-4EEB-BB6B-673023DE0D6F}">
   <dimension ref="A4:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4098,21 +4076,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.26187083091213142</v>
@@ -4138,7 +4116,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.38961556532521946</v>
@@ -4164,7 +4142,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.26318045226000814</v>
@@ -4190,7 +4168,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.46704809822022852</v>
@@ -4216,7 +4194,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.30850133774384564</v>
@@ -4242,7 +4220,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.24963894508182327</v>
@@ -4268,7 +4246,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.42249137337048115</v>
@@ -4294,7 +4272,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.19149186549951044</v>
@@ -4320,7 +4298,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.28897390261783251</v>
@@ -4346,7 +4324,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.51369860428650249</v>
@@ -4372,7 +4350,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.38365089526097707</v>
@@ -4398,7 +4376,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.42446908740749595</v>
@@ -4424,7 +4402,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.53031590731629352</v>
@@ -4450,7 +4428,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.62832256568214273</v>
@@ -4476,7 +4454,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.45503493120290678</v>
@@ -4502,7 +4480,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.54824828111633395</v>
@@ -4528,7 +4506,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.42826695244501939</v>
@@ -4554,7 +4532,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.28847764888791416</v>
@@ -4580,7 +4558,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.46198366795126611</v>
@@ -4606,7 +4584,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.3219436643095509</v>
@@ -4632,7 +4610,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.42149911556927322</v>
@@ -4658,7 +4636,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.51927809766825372</v>
@@ -4684,7 +4662,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.47528907822824701</v>
@@ -4710,7 +4688,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.55751404042957375</v>
@@ -4756,23 +4734,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD47CF5-E7DA-4F4A-99A7-7036B61EA086}">
   <dimension ref="A5:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -4798,21 +4776,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.28040670099470544</v>
@@ -4838,7 +4816,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.41155024713585803</v>
@@ -4864,7 +4842,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.28605977006873068</v>
@@ -4890,7 +4868,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.49966455597613935</v>
@@ -4916,7 +4894,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.30092463341062625</v>
@@ -4942,7 +4920,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.26188720908319429</v>
@@ -4968,7 +4946,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.41467791830920736</v>
@@ -4994,7 +4972,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.2311590730045176</v>
@@ -5020,7 +4998,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.32593373873344911</v>
@@ -5046,7 +5024,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.55290055946455541</v>
@@ -5072,7 +5050,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.37664854511655543</v>
@@ -5098,7 +5076,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.42398983393727774</v>
@@ -5124,7 +5102,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.54559243530882717</v>
@@ -5150,7 +5128,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.64366833478688734</v>
@@ -5176,7 +5154,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.43453595807318834</v>
@@ -5202,7 +5180,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.57910968920085637</v>
@@ -5228,7 +5206,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.45347602979144541</v>
@@ -5254,7 +5232,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.28512755788423522</v>
@@ -5280,7 +5258,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.50288084019939583</v>
@@ -5306,7 +5284,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.28658569678942231</v>
@@ -5332,7 +5310,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.40205490919308556</v>
@@ -5358,7 +5336,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.51955601143740182</v>
@@ -5384,7 +5362,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.47876366401253273</v>
@@ -5410,7 +5388,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.53897215828032419</v>
@@ -5466,23 +5444,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08F9D57-D9ED-4491-A08F-AC4168D4F207}">
   <dimension ref="A5:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -5508,21 +5486,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>0.30925252759332111</v>
@@ -5548,7 +5526,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>0.44299202518215142</v>
@@ -5574,7 +5552,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>0.30278218141893654</v>
@@ -5600,7 +5578,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>0.50991006915290216</v>
@@ -5626,7 +5604,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>0.30979989145648917</v>
@@ -5652,7 +5630,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>0.28550461808587368</v>
@@ -5678,7 +5656,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
         <v>0.40731103790707945</v>
@@ -5704,7 +5682,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
         <v>0.23096731008945526</v>
@@ -5730,7 +5708,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>0.3232346864699277</v>
@@ -5756,7 +5734,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>0.58298939048227805</v>
@@ -5782,7 +5760,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>0.38328152052701547</v>
@@ -5808,7 +5786,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0.44328494104393956</v>
@@ -5834,7 +5812,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>0.58738218826317401</v>
@@ -5860,7 +5838,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>0.6424426761058033</v>
@@ -5886,7 +5864,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>0.41128361256035761</v>
@@ -5912,7 +5890,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>0.60129408167946585</v>
@@ -5938,7 +5916,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>0.46790906605644</v>
@@ -5964,7 +5942,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>0.2898302992933578</v>
@@ -5990,7 +5968,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>0.54288559736017339</v>
@@ -6016,7 +5994,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.32437605915120343</v>
@@ -6042,7 +6020,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6">
         <v>0.42696048119493607</v>
@@ -6068,7 +6046,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>0.53871467784284144</v>
@@ -6094,7 +6072,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>0.49318759648176363</v>
@@ -6120,7 +6098,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6">
         <v>0.5312182626889933</v>
